--- a/data/trans_orig/P63-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P63-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>73528</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59809</v>
+        <v>59812</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90465</v>
+        <v>89939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2322469409905517</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1889117366713816</v>
+        <v>0.1889223354819903</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.285742943522468</v>
+        <v>0.2840831202731848</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -765,19 +765,19 @@
         <v>92420</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>76490</v>
+        <v>76190</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>109034</v>
+        <v>110175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2852358547320197</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2360720915448826</v>
+        <v>0.2351453434410465</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3365129679056346</v>
+        <v>0.3400358109111861</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>169</v>
@@ -786,19 +786,19 @@
         <v>165948</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>146480</v>
+        <v>145779</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>189307</v>
+        <v>189573</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2590481069470754</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2286588368461206</v>
+        <v>0.2275636059246754</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2955127728103941</v>
+        <v>0.2959280293622634</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>243067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>226130</v>
+        <v>226656</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>256786</v>
+        <v>256783</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7677530590094483</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7142570564775313</v>
+        <v>0.7159168797268149</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8110882633286181</v>
+        <v>0.8110776645180094</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -836,19 +836,19 @@
         <v>231591</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>214977</v>
+        <v>213836</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>247521</v>
+        <v>247821</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7147641452679804</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6634870320943654</v>
+        <v>0.6599641890888138</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7639279084551174</v>
+        <v>0.7648546565589535</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>502</v>
@@ -857,19 +857,19 @@
         <v>474658</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>451299</v>
+        <v>451033</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>494126</v>
+        <v>494827</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7409518930529245</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7044872271896051</v>
+        <v>0.7040719706377366</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7713411631538792</v>
+        <v>0.7724363940753247</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>136936</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>125063</v>
+        <v>126163</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>147066</v>
+        <v>146979</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7776773094200246</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.710248529773309</v>
+        <v>0.716499861873834</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8352074211317942</v>
+        <v>0.8347115537096063</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>185</v>
@@ -982,19 +982,19 @@
         <v>197490</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>180246</v>
+        <v>180709</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>211563</v>
+        <v>212776</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.697986392349718</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6370416626815295</v>
+        <v>0.6386755219601479</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7477230637641205</v>
+        <v>0.7520085278097091</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>319</v>
@@ -1003,19 +1003,19 @@
         <v>334427</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>313278</v>
+        <v>313732</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>353278</v>
+        <v>354385</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7285559122645114</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6824829232495248</v>
+        <v>0.683472020671655</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7696233017259635</v>
+        <v>0.7720361385212047</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>39147</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29017</v>
+        <v>29104</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51020</v>
+        <v>49920</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2223226905799755</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1647925788682059</v>
+        <v>0.1652884462903937</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2897514702266915</v>
+        <v>0.283500138126166</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>82</v>
@@ -1053,19 +1053,19 @@
         <v>85453</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>71380</v>
+        <v>70167</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>102697</v>
+        <v>102234</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.302013607650282</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2522769362358797</v>
+        <v>0.247991472190291</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3629583373184704</v>
+        <v>0.3613244780398521</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>121</v>
@@ -1074,19 +1074,19 @@
         <v>124600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>105749</v>
+        <v>104642</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>145749</v>
+        <v>145295</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2714440877354886</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2303766982740364</v>
+        <v>0.2279638614787951</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3175170767504752</v>
+        <v>0.3165279793283446</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>66191</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59880</v>
+        <v>60016</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69632</v>
+        <v>69845</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9315531940859672</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8427442942413211</v>
+        <v>0.8446466050999192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9799915416241006</v>
+        <v>0.9829893401713606</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>233</v>
@@ -1199,19 +1199,19 @@
         <v>240217</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>221751</v>
+        <v>221572</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>260178</v>
+        <v>258426</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6236214572820863</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5756820090230774</v>
+        <v>0.5752162253613095</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6754404918160564</v>
+        <v>0.6708938035693577</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>293</v>
@@ -1220,19 +1220,19 @@
         <v>306408</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>284267</v>
+        <v>286244</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>327051</v>
+        <v>327809</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6715772058283285</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6230480466481789</v>
+        <v>0.6273821829406028</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7168204763610664</v>
+        <v>0.7184823614388349</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>4863</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1422</v>
+        <v>1209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11174</v>
+        <v>11038</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06844680591403281</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02000845837589934</v>
+        <v>0.01701065982864011</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1572557057586789</v>
+        <v>0.1553533949000808</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>138</v>
@@ -1270,19 +1270,19 @@
         <v>144980</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>125019</v>
+        <v>126771</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>163446</v>
+        <v>163625</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3763785427179138</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3245595081839436</v>
+        <v>0.3291061964306423</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4243179909769226</v>
+        <v>0.4247837746386905</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>142</v>
@@ -1291,19 +1291,19 @@
         <v>149844</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>129201</v>
+        <v>128443</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>171985</v>
+        <v>170008</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3284227941716716</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2831795236389337</v>
+        <v>0.2815176385611651</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3769519533518213</v>
+        <v>0.3726178170593973</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>74403</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66989</v>
+        <v>66849</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>78296</v>
+        <v>78768</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9205155691816655</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.828794667639646</v>
+        <v>0.8270639916222148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9686921013294499</v>
+        <v>0.9745298756636386</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>167</v>
@@ -1416,19 +1416,19 @@
         <v>170445</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>153390</v>
+        <v>152120</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>189280</v>
+        <v>186889</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4944343483830214</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4449601253793906</v>
+        <v>0.4412762507821982</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5490718738744562</v>
+        <v>0.5421356008752246</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>238</v>
@@ -1437,19 +1437,19 @@
         <v>244847</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>224540</v>
+        <v>223689</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>266323</v>
+        <v>264993</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.57536130791513</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5276419623966725</v>
+        <v>0.5256422059463037</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.625825888101592</v>
+        <v>0.6227011165993289</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>6424</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2531</v>
+        <v>2059</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13838</v>
+        <v>13978</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07948443081833446</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03130789867055</v>
+        <v>0.0254701243363614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1712053323603539</v>
+        <v>0.1729360083777849</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>172</v>
@@ -1487,19 +1487,19 @@
         <v>174283</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>155448</v>
+        <v>157839</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>191338</v>
+        <v>192608</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5055656516169786</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4509281261255438</v>
+        <v>0.4578643991247754</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5550398746206094</v>
+        <v>0.5587237492178018</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>177</v>
@@ -1508,19 +1508,19 @@
         <v>180707</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>159231</v>
+        <v>160561</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>201014</v>
+        <v>201865</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.42463869208487</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3741741118984078</v>
+        <v>0.377298883400671</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4723580376033275</v>
+        <v>0.4743577940536963</v>
       </c>
     </row>
     <row r="15">
@@ -1612,7 +1612,7 @@
         <v>220374</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>213965</v>
+        <v>216108</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>221428</v>
@@ -1621,7 +1621,7 @@
         <v>0.995241219593588</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9662941084882261</v>
+        <v>0.9759755609581098</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -1633,19 +1633,19 @@
         <v>151451</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>133972</v>
+        <v>133302</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>169986</v>
+        <v>169847</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4469761585617864</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3953914070045754</v>
+        <v>0.3934140570741321</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5016786227553409</v>
+        <v>0.5012690490340159</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>371</v>
@@ -1654,19 +1654,19 @@
         <v>371825</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>347704</v>
+        <v>350326</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>393531</v>
+        <v>392254</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6636630580450774</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6206101599104922</v>
+        <v>0.6252899426341503</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7024052089648574</v>
+        <v>0.7001261469125922</v>
       </c>
     </row>
     <row r="17">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7463</v>
+        <v>5320</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004758780406411939</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03370589151177714</v>
+        <v>0.02402443904189025</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>185</v>
@@ -1704,19 +1704,19 @@
         <v>187383</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>168848</v>
+        <v>168987</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>204862</v>
+        <v>205532</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5530238414382136</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.498321377244659</v>
+        <v>0.4987309509659841</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6046085929954245</v>
+        <v>0.6065859429258679</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>186</v>
@@ -1725,19 +1725,19 @@
         <v>188437</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>166731</v>
+        <v>168008</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>212558</v>
+        <v>209936</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3363369419549225</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2975947910351426</v>
+        <v>0.2998738530874079</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3793898400895078</v>
+        <v>0.3747100573658499</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>287250</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>281674</v>
+        <v>282554</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>290015</v>
+        <v>289118</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9904661275075195</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.971238905565537</v>
+        <v>0.9742738643248382</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1</v>
+        <v>0.9969078775168552</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>144</v>
@@ -1850,19 +1850,19 @@
         <v>132632</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>115886</v>
+        <v>116223</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>149071</v>
+        <v>150604</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3908845252181163</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3415309034994857</v>
+        <v>0.3425235128248002</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4393324890506241</v>
+        <v>0.4438495755431034</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>442</v>
@@ -1871,19 +1871,19 @@
         <v>419883</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>395565</v>
+        <v>397645</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>441070</v>
+        <v>442817</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6671914925161638</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6285504101753544</v>
+        <v>0.6318561837556209</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7008570986438386</v>
+        <v>0.7036340291063348</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>2765</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0</v>
+        <v>897</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8341</v>
+        <v>7461</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009533872492480479</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0</v>
+        <v>0.003092122483144818</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02876109443446314</v>
+        <v>0.02572613567516182</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>223</v>
@@ -1921,19 +1921,19 @@
         <v>206681</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>190242</v>
+        <v>188709</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>223427</v>
+        <v>223090</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6091154747818838</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5606675109493759</v>
+        <v>0.5561504244568966</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6584690965005144</v>
+        <v>0.6574764871751999</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>226</v>
@@ -1942,19 +1942,19 @@
         <v>209446</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>188259</v>
+        <v>186512</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>233764</v>
+        <v>231684</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3328085074838362</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2991429013561613</v>
+        <v>0.2963659708936652</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3714495898246456</v>
+        <v>0.3681438162443791</v>
       </c>
     </row>
     <row r="21">
@@ -2046,7 +2046,7 @@
         <v>206532</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>202962</v>
+        <v>202628</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>207412</v>
@@ -2055,7 +2055,7 @@
         <v>0.9957571428180257</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9785429574823344</v>
+        <v>0.9769325250403508</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -2067,19 +2067,19 @@
         <v>115519</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>97859</v>
+        <v>97406</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>134933</v>
+        <v>135253</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3459596821470228</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.293072321787107</v>
+        <v>0.2917165208476916</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4041034024294293</v>
+        <v>0.4050619229076174</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>317</v>
@@ -2088,19 +2088,19 @@
         <v>322051</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>298371</v>
+        <v>298532</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>343837</v>
+        <v>346729</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5949360592648745</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5511918609073375</v>
+        <v>0.5514890804500786</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6351816205891563</v>
+        <v>0.6405247535946169</v>
       </c>
     </row>
     <row r="23">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4450</v>
+        <v>4784</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004242857181974266</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02145704251766554</v>
+        <v>0.02306747495964867</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>189</v>
@@ -2138,19 +2138,19 @@
         <v>218389</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>198975</v>
+        <v>198655</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>236049</v>
+        <v>236502</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6540403178529772</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5958965975705707</v>
+        <v>0.5949380770923826</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7069276782128923</v>
+        <v>0.7082834791523084</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>190</v>
@@ -2159,19 +2159,19 @@
         <v>219269</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>197483</v>
+        <v>194591</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>242949</v>
+        <v>242788</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4050639407351256</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3648183794108437</v>
+        <v>0.3594752464053831</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4488081390926625</v>
+        <v>0.4485109195499214</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>1065214</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1037357</v>
+        <v>1034523</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1092443</v>
+        <v>1094539</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.781284124810063</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7608521710288914</v>
+        <v>0.7587732292611957</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8012547602265442</v>
+        <v>0.8027923231670065</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1073</v>
@@ -2284,19 +2284,19 @@
         <v>1100174</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1052515</v>
+        <v>1058828</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1145819</v>
+        <v>1149791</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4683717063662047</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.448081777224557</v>
+        <v>0.4507694168580195</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4878036895656022</v>
+        <v>0.4894946516597855</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2149</v>
@@ -2305,19 +2305,19 @@
         <v>2165389</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2109724</v>
+        <v>2103433</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2226313</v>
+        <v>2222461</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5832934211907295</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5682990569731374</v>
+        <v>0.5666042874187284</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5997046536533747</v>
+        <v>0.5986670622567563</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>298201</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>270972</v>
+        <v>268876</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>326058</v>
+        <v>328892</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.218715875189937</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1987452397734558</v>
+        <v>0.1972076768329936</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2391478289711087</v>
+        <v>0.2412267707388046</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1238</v>
@@ -2355,19 +2355,19 @@
         <v>1248760</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1203115</v>
+        <v>1199143</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1296419</v>
+        <v>1290106</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5316282936337953</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.512196310434398</v>
+        <v>0.5105053483402145</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.551918222775443</v>
+        <v>0.5492305831419805</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1544</v>
@@ -2376,19 +2376,19 @@
         <v>1546960</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1486036</v>
+        <v>1489888</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1602625</v>
+        <v>1608916</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4167065788092705</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4002953463466253</v>
+        <v>0.4013329377432438</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4317009430268626</v>
+        <v>0.4333957125812716</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>155494</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136447</v>
+        <v>136289</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>172737</v>
+        <v>174022</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4220380453942324</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3703414111450816</v>
+        <v>0.3699112895328698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4688385913611811</v>
+        <v>0.4723238357485408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -2744,19 +2744,19 @@
         <v>102384</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>85758</v>
+        <v>86495</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>119649</v>
+        <v>121686</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2989935379821799</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2504387940001813</v>
+        <v>0.2525938348890975</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3494125842591318</v>
+        <v>0.3553621617470334</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>250</v>
@@ -2765,19 +2765,19 @@
         <v>257878</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>232784</v>
+        <v>232914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>285766</v>
+        <v>284849</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3627666449339794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3274660724603876</v>
+        <v>0.3276480899978805</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4019975100585841</v>
+        <v>0.4007072990405522</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>212943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195700</v>
+        <v>194415</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>231990</v>
+        <v>232148</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5779619546057676</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5311614086388189</v>
+        <v>0.5276761642514592</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6296585888549185</v>
+        <v>0.6300887104671306</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>237</v>
@@ -2815,19 +2815,19 @@
         <v>240045</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>222780</v>
+        <v>220743</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>256671</v>
+        <v>255934</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7010064620178201</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6505874157408682</v>
+        <v>0.6446378382529666</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7495612059998189</v>
+        <v>0.7474061651109024</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>450</v>
@@ -2836,19 +2836,19 @@
         <v>452988</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>425100</v>
+        <v>426017</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>478082</v>
+        <v>477952</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6372333550660206</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5980024899414159</v>
+        <v>0.5992927009594479</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6725339275396124</v>
+        <v>0.6723519100021196</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>257956</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>244536</v>
+        <v>244906</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>269966</v>
+        <v>269103</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8562463090436623</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.811698385191195</v>
+        <v>0.8129265912961611</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8961120171797298</v>
+        <v>0.8932463848853937</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>250</v>
@@ -2961,19 +2961,19 @@
         <v>266188</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>250040</v>
+        <v>249797</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>281178</v>
+        <v>279185</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8016645092469418</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7530324061485267</v>
+        <v>0.7523000164105955</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8468088695251517</v>
+        <v>0.8408069655661132</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>503</v>
@@ -2982,19 +2982,19 @@
         <v>524144</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>505529</v>
+        <v>503744</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>543620</v>
+        <v>542878</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8276290351089998</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.798235993874461</v>
+        <v>0.795416875448414</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8583811215744196</v>
+        <v>0.8572098369651067</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>43308</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31298</v>
+        <v>32161</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56728</v>
+        <v>56358</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1437536909563378</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1038879828202693</v>
+        <v>0.1067536151146063</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.188301614808805</v>
+        <v>0.1870734087038385</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>62</v>
@@ -3032,19 +3032,19 @@
         <v>65856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>50866</v>
+        <v>52859</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>82004</v>
+        <v>82247</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1983354907530582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1531911304748486</v>
+        <v>0.1591930344338868</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2469675938514733</v>
+        <v>0.2476999835894045</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>105</v>
@@ -3053,19 +3053,19 @@
         <v>109164</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>89688</v>
+        <v>90430</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>127779</v>
+        <v>129564</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1723709648910002</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1416188784255805</v>
+        <v>0.1427901630348934</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2017640061255391</v>
+        <v>0.2045831245515861</v>
       </c>
     </row>
     <row r="9">
@@ -3157,7 +3157,7 @@
         <v>251447</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>246316</v>
+        <v>246071</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>253701</v>
@@ -3166,7 +3166,7 @@
         <v>0.9911165190596244</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.970891991750744</v>
+        <v>0.9699240644485974</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -3178,19 +3178,19 @@
         <v>340345</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>323256</v>
+        <v>323362</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>356212</v>
+        <v>355636</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8060729199770014</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7656004202381342</v>
+        <v>0.7658499177537341</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8436530044107651</v>
+        <v>0.8422872697776795</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>549</v>
@@ -3199,19 +3199,19 @@
         <v>591793</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>574086</v>
+        <v>573136</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>607981</v>
+        <v>607542</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8755267637209938</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8493304831655707</v>
+        <v>0.8479250087943181</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8994758287124184</v>
+        <v>0.8988259642275418</v>
       </c>
     </row>
     <row r="11">
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7385</v>
+        <v>7630</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.00888348094037566</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02910800824925468</v>
+        <v>0.03007593555140266</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>79</v>
@@ -3249,19 +3249,19 @@
         <v>81881</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>66014</v>
+        <v>66590</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>98970</v>
+        <v>98864</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1939270800229986</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.156346995589235</v>
+        <v>0.1577127302223203</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2343995797618657</v>
+        <v>0.2341500822462656</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>81</v>
@@ -3270,19 +3270,19 @@
         <v>84135</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>67947</v>
+        <v>68386</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>101842</v>
+        <v>102792</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1244732362790062</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1005241712875817</v>
+        <v>0.1011740357724586</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1506695168344295</v>
+        <v>0.1520749912056824</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>239490</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>231315</v>
+        <v>231184</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>242797</v>
+        <v>243743</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9780382069954238</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9446509716971083</v>
+        <v>0.9441183562907756</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9915422961771144</v>
+        <v>0.9954076455696675</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>215</v>
@@ -3395,19 +3395,19 @@
         <v>246537</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>227723</v>
+        <v>226428</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>267506</v>
+        <v>263741</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6394859519747393</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5906854946796269</v>
+        <v>0.5873276411414891</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6938778178309749</v>
+        <v>0.684112456527919</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>432</v>
@@ -3416,19 +3416,19 @@
         <v>486027</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>463305</v>
+        <v>464162</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>505971</v>
+        <v>508247</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7709926022042123</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7349486257894809</v>
+        <v>0.7363087128300715</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8026309513368725</v>
+        <v>0.8062405177074855</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>5378</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2071</v>
+        <v>1125</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13553</v>
+        <v>13684</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02196179300457619</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008457703822885482</v>
+        <v>0.004592354430332441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05534902830289049</v>
+        <v>0.05588164370922324</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -3466,19 +3466,19 @@
         <v>138986</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>118017</v>
+        <v>121782</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>157800</v>
+        <v>159095</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3605140480252607</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3061221821690252</v>
+        <v>0.3158875434720813</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4093145053203732</v>
+        <v>0.4126723588585111</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>130</v>
@@ -3487,19 +3487,19 @@
         <v>144364</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>124420</v>
+        <v>122144</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>167086</v>
+        <v>166229</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2290073977957877</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1973690486631277</v>
+        <v>0.1937594822925145</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2650513742105191</v>
+        <v>0.2636912871699286</v>
       </c>
     </row>
     <row r="15">
@@ -3591,7 +3591,7 @@
         <v>270080</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>265987</v>
+        <v>265894</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>271092</v>
@@ -3600,7 +3600,7 @@
         <v>0.9962656567085899</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9811679567307714</v>
+        <v>0.9808264319524607</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -3612,19 +3612,19 @@
         <v>186135</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>165256</v>
+        <v>166219</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>206373</v>
+        <v>207312</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4976693474719411</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4418453984965981</v>
+        <v>0.4444192757390238</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5517795848410225</v>
+        <v>0.5542900524433543</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>411</v>
@@ -3633,19 +3633,19 @@
         <v>456214</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>430244</v>
+        <v>430243</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>478351</v>
+        <v>477330</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7071940184653391</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6669365158554372</v>
+        <v>0.6669353651071531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7415083715016905</v>
+        <v>0.7399256450620824</v>
       </c>
     </row>
     <row r="17">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5105</v>
+        <v>5198</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.003734343291410099</v>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01883204326922848</v>
+        <v>0.01917356804753936</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>172</v>
@@ -3683,19 +3683,19 @@
         <v>187878</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>167640</v>
+        <v>166701</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>208757</v>
+        <v>207794</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5023306525280589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4482204151589775</v>
+        <v>0.4457099475566458</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5581546015034021</v>
+        <v>0.5555807242609763</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>173</v>
@@ -3704,19 +3704,19 @@
         <v>188891</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>166754</v>
+        <v>167775</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>214861</v>
+        <v>214862</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2928059815346609</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2584916284983096</v>
+        <v>0.2600743549379176</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3330634841445628</v>
+        <v>0.333064634892846</v>
       </c>
     </row>
     <row r="18">
@@ -3808,7 +3808,7 @@
         <v>304782</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>299584</v>
+        <v>299453</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>306770</v>
@@ -3817,7 +3817,7 @@
         <v>0.9935204690154171</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9765741436901528</v>
+        <v>0.9761487385447238</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -3829,19 +3829,19 @@
         <v>175642</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>153879</v>
+        <v>157205</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>192578</v>
+        <v>196266</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5015650452971777</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4394177505504129</v>
+        <v>0.4489163352090442</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.54992791470165</v>
+        <v>0.560459722247707</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>447</v>
@@ -3850,19 +3850,19 @@
         <v>480424</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>457444</v>
+        <v>457724</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>502159</v>
+        <v>504775</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7312862102618231</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6963062538483336</v>
+        <v>0.6967319583806826</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7643695396258655</v>
+        <v>0.7683527374559862</v>
       </c>
     </row>
     <row r="20">
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7186</v>
+        <v>7317</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006479530984582876</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02342585630984785</v>
+        <v>0.02385126145527439</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>170</v>
@@ -3900,19 +3900,19 @@
         <v>174546</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>157610</v>
+        <v>153922</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>196309</v>
+        <v>192983</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4984349547028223</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.45007208529835</v>
+        <v>0.4395402777522929</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.560582249449587</v>
+        <v>0.5510836647909556</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>172</v>
@@ -3921,19 +3921,19 @@
         <v>176534</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>154799</v>
+        <v>152183</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>199514</v>
+        <v>199234</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.268713789738177</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2356304603741346</v>
+        <v>0.2316472625440138</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3036937461516664</v>
+        <v>0.3032680416193174</v>
       </c>
     </row>
     <row r="21">
@@ -4038,19 +4038,19 @@
         <v>168821</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>148852</v>
+        <v>148544</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>188870</v>
+        <v>187502</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4340093421514207</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.382674662768915</v>
+        <v>0.3818813992216928</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4855523835025757</v>
+        <v>0.4820351402251622</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>374</v>
@@ -4059,19 +4059,19 @@
         <v>418671</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>393271</v>
+        <v>393135</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>444061</v>
+        <v>442865</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6553722741828446</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6156121042825058</v>
+        <v>0.6153985276896541</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6951159940381301</v>
+        <v>0.6932438430961781</v>
       </c>
     </row>
     <row r="23">
@@ -4101,19 +4101,19 @@
         <v>220158</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>200109</v>
+        <v>201477</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>240127</v>
+        <v>240435</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5659906578485793</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5144476164974242</v>
+        <v>0.5179648597748379</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.617325337231085</v>
+        <v>0.6181186007783072</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>198</v>
@@ -4122,19 +4122,19 @@
         <v>220159</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>194769</v>
+        <v>195965</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>245559</v>
+        <v>245695</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3446277258171555</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3048840059618698</v>
+        <v>0.3067561569038219</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3843878957174943</v>
+        <v>0.3846014723103455</v>
       </c>
     </row>
     <row r="24">
@@ -4226,19 +4226,19 @@
         <v>1729101</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1699307</v>
+        <v>1697208</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1757675</v>
+        <v>1757929</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8662904640091189</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8513636736693994</v>
+        <v>0.8503116801850114</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8806059602522894</v>
+        <v>0.8807336335145337</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1365</v>
@@ -4247,19 +4247,19 @@
         <v>1486051</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1431285</v>
+        <v>1432556</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1538330</v>
+        <v>1537643</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5725705905831617</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5514691868879544</v>
+        <v>0.5519591081595822</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5927134570027677</v>
+        <v>0.5924486325884248</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2966</v>
@@ -4268,19 +4268,19 @@
         <v>3215153</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3151210</v>
+        <v>3150622</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3276577</v>
+        <v>3281593</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7002575081119743</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.6863308137548357</v>
+        <v>0.6862027320524801</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7136356854723013</v>
+        <v>0.7147281407611003</v>
       </c>
     </row>
     <row r="26">
@@ -4297,19 +4297,19 @@
         <v>266882</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>238308</v>
+        <v>238054</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>296676</v>
+        <v>298775</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1337095359908811</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1193940397477106</v>
+        <v>0.1192663664854663</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1486363263306007</v>
+        <v>0.1496883198149886</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1044</v>
@@ -4318,19 +4318,19 @@
         <v>1109352</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1057073</v>
+        <v>1057760</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1164118</v>
+        <v>1162847</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4274294094168382</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4072865429972323</v>
+        <v>0.4075513674115749</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4485308131120456</v>
+        <v>0.4480408918404177</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1309</v>
@@ -4339,19 +4339,19 @@
         <v>1376233</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1314809</v>
+        <v>1309793</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1440176</v>
+        <v>1440764</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2997424918880257</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2863643145276988</v>
+        <v>0.2852718592388998</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3136691862451643</v>
+        <v>0.31379726794752</v>
       </c>
     </row>
     <row r="27">
@@ -4686,19 +4686,19 @@
         <v>93140</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78186</v>
+        <v>78071</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109763</v>
+        <v>111596</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2772450391491101</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2327312502186073</v>
+        <v>0.2323876086114604</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3267249332495693</v>
+        <v>0.3321809705473949</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -4707,19 +4707,19 @@
         <v>78368</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64528</v>
+        <v>64120</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95400</v>
+        <v>94316</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2578756418160754</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.212331938104007</v>
+        <v>0.2109909734178887</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3139202561219634</v>
+        <v>0.3103506677986856</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>170</v>
@@ -4728,19 +4728,19 @@
         <v>171509</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>147269</v>
+        <v>150018</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>193122</v>
+        <v>195723</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2680454433690069</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2301620535671232</v>
+        <v>0.2344586189173164</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3018241165323211</v>
+        <v>0.3058896240159558</v>
       </c>
     </row>
     <row r="5">
@@ -4757,19 +4757,19 @@
         <v>242810</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>226187</v>
+        <v>224354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>257764</v>
+        <v>257879</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7227549608508899</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6732750667504311</v>
+        <v>0.6678190294526052</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7672687497813929</v>
+        <v>0.7676123913885396</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>229</v>
@@ -4778,19 +4778,19 @@
         <v>225532</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>208500</v>
+        <v>209584</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>239372</v>
+        <v>239780</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7421243581839246</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6860797438780366</v>
+        <v>0.6896493322013142</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7876680618959929</v>
+        <v>0.7890090265821113</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>457</v>
@@ -4799,19 +4799,19 @@
         <v>468341</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>446728</v>
+        <v>444127</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>492581</v>
+        <v>489832</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7319545566309931</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6981758834676792</v>
+        <v>0.6941103759840441</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7698379464328768</v>
+        <v>0.7655413810826835</v>
       </c>
     </row>
     <row r="6">
@@ -4903,19 +4903,19 @@
         <v>208574</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>196185</v>
+        <v>196957</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>218720</v>
+        <v>218489</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8536099222231212</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.802903685279168</v>
+        <v>0.8060630869818424</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8951311449207732</v>
+        <v>0.8941866830383584</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>226</v>
@@ -4924,19 +4924,19 @@
         <v>220563</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>206052</v>
+        <v>205485</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>233890</v>
+        <v>233771</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7661616977578876</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.715756218720322</v>
+        <v>0.7137871652580784</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8124575216617415</v>
+        <v>0.8120441921250028</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>426</v>
@@ -4945,19 +4945,19 @@
         <v>429136</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>412553</v>
+        <v>412334</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>447315</v>
+        <v>446299</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8063091699846501</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7751501334065058</v>
+        <v>0.7747394248596933</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8404652306345796</v>
+        <v>0.8385570753219215</v>
       </c>
     </row>
     <row r="8">
@@ -4974,19 +4974,19 @@
         <v>35770</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25624</v>
+        <v>25855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>48159</v>
+        <v>47387</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1463900777768789</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1048688550792271</v>
+        <v>0.1058133169616418</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.197096314720832</v>
+        <v>0.1939369130181577</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -4995,19 +4995,19 @@
         <v>67317</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53990</v>
+        <v>54109</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>81828</v>
+        <v>82395</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2338383022421125</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1875424783382588</v>
+        <v>0.1879558078749972</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.284243781279678</v>
+        <v>0.2862128347419217</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>104</v>
@@ -5016,19 +5016,19 @@
         <v>103087</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>84908</v>
+        <v>85924</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>119670</v>
+        <v>119889</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1936908300153499</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1595347693654203</v>
+        <v>0.1614429246780785</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.224849866593494</v>
+        <v>0.2252605751403066</v>
       </c>
     </row>
     <row r="9">
@@ -5120,7 +5120,7 @@
         <v>207640</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>202068</v>
+        <v>203708</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>209509</v>
@@ -5129,7 +5129,7 @@
         <v>0.9910790938789477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9644857308911192</v>
+        <v>0.972309495895288</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -5141,19 +5141,19 @@
         <v>271745</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>255730</v>
+        <v>256009</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>285147</v>
+        <v>286586</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7900214903964258</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7434623810297715</v>
+        <v>0.7442718571868794</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.828982115118944</v>
+        <v>0.8331655427082764</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>471</v>
@@ -5162,19 +5162,19 @@
         <v>479385</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>463679</v>
+        <v>463457</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>494361</v>
+        <v>493927</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8661276544025512</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8377496509341611</v>
+        <v>0.8373502434779501</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8931858494517665</v>
+        <v>0.8924006162202831</v>
       </c>
     </row>
     <row r="11">
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7441</v>
+        <v>5801</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008920906121052317</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03551426910888079</v>
+        <v>0.02769050410471212</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>74</v>
@@ -5212,19 +5212,19 @@
         <v>72227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58825</v>
+        <v>57386</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88242</v>
+        <v>87963</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2099785096035743</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1710178848810561</v>
+        <v>0.1668344572917236</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2565376189702293</v>
+        <v>0.2557281428131202</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>76</v>
@@ -5233,19 +5233,19 @@
         <v>74096</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>59120</v>
+        <v>59554</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>89802</v>
+        <v>90024</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1338723455974488</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1068141505482335</v>
+        <v>0.1075993837797168</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1622503490658389</v>
+        <v>0.1626497565220498</v>
       </c>
     </row>
     <row r="12">
@@ -5337,19 +5337,19 @@
         <v>274976</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>269484</v>
+        <v>268126</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>277331</v>
+        <v>277332</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9879849997314112</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9682529219630344</v>
+        <v>0.963373015925029</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9964467446227689</v>
+        <v>0.9964507339550419</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>253</v>
@@ -5358,19 +5358,19 @@
         <v>271134</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>253213</v>
+        <v>251212</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>290261</v>
+        <v>289965</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6714640072806582</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.627082723845191</v>
+        <v>0.6221284567151804</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.718832625001984</v>
+        <v>0.7180993068477473</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>501</v>
@@ -5379,19 +5379,19 @@
         <v>546110</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>524299</v>
+        <v>524151</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>565970</v>
+        <v>565726</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8006126409415015</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7686366567701689</v>
+        <v>0.7684208025422106</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8297287958164984</v>
+        <v>0.8293706917521458</v>
       </c>
     </row>
     <row r="14">
@@ -5408,19 +5408,19 @@
         <v>3344</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8836</v>
+        <v>10194</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01201500026858887</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00355325537723105</v>
+        <v>0.003549266044958093</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03174707803696564</v>
+        <v>0.03662698407497143</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>124</v>
@@ -5429,19 +5429,19 @@
         <v>132661</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113534</v>
+        <v>113830</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>150582</v>
+        <v>152583</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3285359927193418</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.281167374998016</v>
+        <v>0.2819006931522528</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.372917276154809</v>
+        <v>0.3778715432848197</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>127</v>
@@ -5450,19 +5450,19 @@
         <v>136005</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>116145</v>
+        <v>116389</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>157816</v>
+        <v>157964</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1993873590584985</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1702712041835017</v>
+        <v>0.1706293082478541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2313633432298312</v>
+        <v>0.2315791974577893</v>
       </c>
     </row>
     <row r="15">
@@ -5554,19 +5554,19 @@
         <v>308839</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>303151</v>
+        <v>302945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>311168</v>
+        <v>311177</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9892594832294531</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9710405921236254</v>
+        <v>0.9703817971901593</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9967210235439602</v>
+        <v>0.9967487934201198</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>191</v>
@@ -5575,19 +5575,19 @@
         <v>217451</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>197053</v>
+        <v>196197</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>237257</v>
+        <v>236875</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5594946894025816</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5070113577247485</v>
+        <v>0.5048098318538711</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6104555224647411</v>
+        <v>0.6094730422388245</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>466</v>
@@ -5596,19 +5596,19 @@
         <v>526290</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>502016</v>
+        <v>502135</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>549590</v>
+        <v>552780</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.750932798998775</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7162981350109927</v>
+        <v>0.7164675563077978</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7841789266623918</v>
+        <v>0.7887303537505914</v>
       </c>
     </row>
     <row r="17">
@@ -5625,19 +5625,19 @@
         <v>3353</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9041</v>
+        <v>9247</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01074051677054683</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003278976456039758</v>
+        <v>0.003251206579880117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02895940787637421</v>
+        <v>0.02961820280983934</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>150</v>
@@ -5646,19 +5646,19 @@
         <v>171205</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>151399</v>
+        <v>151781</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>191603</v>
+        <v>192459</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4405053105974184</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3895444775352584</v>
+        <v>0.3905269577611757</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4929886422752515</v>
+        <v>0.4951901681461289</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>153</v>
@@ -5667,19 +5667,19 @@
         <v>174558</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>151258</v>
+        <v>148068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>198832</v>
+        <v>198713</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2490672010012251</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2158210733376084</v>
+        <v>0.2112696462494087</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2837018649890076</v>
+        <v>0.2835324436922023</v>
       </c>
     </row>
     <row r="18">
@@ -5784,19 +5784,19 @@
         <v>187798</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>168314</v>
+        <v>167407</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>205460</v>
+        <v>207070</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5082489693964263</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4555177011264323</v>
+        <v>0.4530640839875772</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.556050025324204</v>
+        <v>0.5604047774171546</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>494</v>
@@ -5805,19 +5805,19 @@
         <v>516938</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>491459</v>
+        <v>492730</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>538675</v>
+        <v>540332</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7399201247867372</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7034515905568396</v>
+        <v>0.705269912034262</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7710335177070196</v>
+        <v>0.7734053321626293</v>
       </c>
     </row>
     <row r="20">
@@ -5847,19 +5847,19 @@
         <v>181702</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>164040</v>
+        <v>162430</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>201186</v>
+        <v>202093</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4917510306035737</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4439499746757961</v>
+        <v>0.4395952225828455</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5444822988735679</v>
+        <v>0.5469359160124228</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>172</v>
@@ -5868,19 +5868,19 @@
         <v>181702</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>159965</v>
+        <v>158308</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>207181</v>
+        <v>205910</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2600798752132628</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2289664822929806</v>
+        <v>0.2265946678373707</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2965484094431605</v>
+        <v>0.294730087965738</v>
       </c>
     </row>
     <row r="21">
@@ -5985,19 +5985,19 @@
         <v>166293</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>144142</v>
+        <v>143973</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>189420</v>
+        <v>188522</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4181646393661794</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3624617959460999</v>
+        <v>0.3620365399050441</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4763202776885237</v>
+        <v>0.4740616879338818</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>425</v>
@@ -6006,19 +6006,19 @@
         <v>422496</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>395565</v>
+        <v>396122</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>450664</v>
+        <v>450966</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6461403529715273</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.604953248974755</v>
+        <v>0.6058048526462051</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6892178210144695</v>
+        <v>0.6896797498004085</v>
       </c>
     </row>
     <row r="23">
@@ -6048,19 +6048,19 @@
         <v>231381</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>208254</v>
+        <v>209152</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>253532</v>
+        <v>253701</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5818353606338206</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5236797223114763</v>
+        <v>0.5259383120661182</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6375382040539002</v>
+        <v>0.6379634600949559</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>175</v>
@@ -6069,19 +6069,19 @@
         <v>231381</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>203213</v>
+        <v>202911</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>258312</v>
+        <v>257755</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3538596470284727</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3107821789855304</v>
+        <v>0.3103202501995916</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.395046751025245</v>
+        <v>0.3941951473537947</v>
       </c>
     </row>
     <row r="24">
@@ -6173,19 +6173,19 @@
         <v>1678512</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1648956</v>
+        <v>1648399</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1708321</v>
+        <v>1708341</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8539190143478689</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8388829287349906</v>
+        <v>0.8385993598545703</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8690839445767831</v>
+        <v>0.8690941393612609</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1322</v>
@@ -6194,19 +6194,19 @@
         <v>1413352</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1364351</v>
+        <v>1366277</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1467963</v>
+        <v>1461790</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.566388281703755</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5467513282608926</v>
+        <v>0.547523142167446</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5882731127109038</v>
+        <v>0.585799288440092</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2953</v>
@@ -6215,19 +6215,19 @@
         <v>3091864</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3026486</v>
+        <v>3029063</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3153826</v>
+        <v>3157396</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6930824056308048</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.678426968065526</v>
+        <v>0.6790046583077708</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7069718954513903</v>
+        <v>0.707772243935951</v>
       </c>
     </row>
     <row r="26">
@@ -6244,19 +6244,19 @@
         <v>287145</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>257336</v>
+        <v>257316</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>316701</v>
+        <v>317258</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1460809856521311</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1309160554232168</v>
+        <v>0.1309058606387391</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1611170712650093</v>
+        <v>0.1614006401454297</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>992</v>
@@ -6265,19 +6265,19 @@
         <v>1082025</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1027414</v>
+        <v>1033587</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1131026</v>
+        <v>1129100</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.433611718296245</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.411726887289096</v>
+        <v>0.4142007115599079</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4532486717391074</v>
+        <v>0.452476857832554</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1264</v>
@@ -6286,19 +6286,19 @@
         <v>1369170</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1307208</v>
+        <v>1303638</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1434548</v>
+        <v>1431971</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3069175943691951</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2930281045486098</v>
+        <v>0.292227756064049</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3215730319344743</v>
+        <v>0.320995341692229</v>
       </c>
     </row>
     <row r="27">
@@ -6633,19 +6633,19 @@
         <v>70535</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>49806</v>
+        <v>49770</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96515</v>
+        <v>96091</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2564967178408061</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.181118290043058</v>
+        <v>0.180987352322776</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3509739851200018</v>
+        <v>0.3494290892215344</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -6654,19 +6654,19 @@
         <v>44821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30734</v>
+        <v>31350</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61172</v>
+        <v>63156</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1832678104936518</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1256672496781296</v>
+        <v>0.1281836218452263</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2501233774317983</v>
+        <v>0.2582356135305088</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>57</v>
@@ -6675,19 +6675,19 @@
         <v>115356</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>87299</v>
+        <v>89625</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>147343</v>
+        <v>147320</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2220263711993416</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1680239678993789</v>
+        <v>0.1725011766494383</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.283592168864999</v>
+        <v>0.2835482381862854</v>
       </c>
     </row>
     <row r="5">
@@ -6704,19 +6704,19 @@
         <v>204458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>178478</v>
+        <v>178902</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>225187</v>
+        <v>225223</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7435032821591941</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6490260148799984</v>
+        <v>0.6505709107784655</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8188817099569423</v>
+        <v>0.8190126476772238</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>109</v>
@@ -6725,19 +6725,19 @@
         <v>199747</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>183396</v>
+        <v>181412</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>213834</v>
+        <v>213218</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8167321895063482</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7498766225682018</v>
+        <v>0.7417643864694915</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8743327503218703</v>
+        <v>0.8718163781547738</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>193</v>
@@ -6746,19 +6746,19 @@
         <v>404204</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>372217</v>
+        <v>372240</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>432261</v>
+        <v>429935</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7779736288006582</v>
+        <v>0.7779736288006581</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7164078311350011</v>
+        <v>0.7164517618137146</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8319760321006211</v>
+        <v>0.8274988233505617</v>
       </c>
     </row>
     <row r="6">
@@ -6850,19 +6850,19 @@
         <v>61249</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48995</v>
+        <v>50842</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68350</v>
+        <v>69305</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8039204619881061</v>
+        <v>0.8039204619881063</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6430841380273087</v>
+        <v>0.667316965856941</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8971211875917089</v>
+        <v>0.9096627098263041</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>114</v>
@@ -6871,19 +6871,19 @@
         <v>122023</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>108079</v>
+        <v>106038</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>134132</v>
+        <v>133298</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7014873162575329</v>
+        <v>0.7014873162575328</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.621325638718967</v>
+        <v>0.6095937400575856</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7710993838155901</v>
+        <v>0.7663029662792266</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>155</v>
@@ -6892,19 +6892,19 @@
         <v>183273</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>167348</v>
+        <v>163972</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>198743</v>
+        <v>198262</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7326869446484316</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6690231852927884</v>
+        <v>0.6555266881451975</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7945350423680876</v>
+        <v>0.7926102076051171</v>
       </c>
     </row>
     <row r="8">
@@ -6921,19 +6921,19 @@
         <v>14939</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7838</v>
+        <v>6883</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27193</v>
+        <v>25346</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1960795380118939</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1028788124082907</v>
+        <v>0.09033729017369577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3569158619726913</v>
+        <v>0.3326830341430589</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -6942,19 +6942,19 @@
         <v>51926</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>39817</v>
+        <v>40651</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>65870</v>
+        <v>67911</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2985126837424672</v>
+        <v>0.2985126837424671</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2289006161844102</v>
+        <v>0.2336970337207736</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3786743612810333</v>
+        <v>0.3904062599424144</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -6963,19 +6963,19 @@
         <v>66865</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>51395</v>
+        <v>51876</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>82790</v>
+        <v>86166</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.2673130553515685</v>
+        <v>0.2673130553515686</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2054649576319127</v>
+        <v>0.207389792394883</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3309768147072119</v>
+        <v>0.3444733118548022</v>
       </c>
     </row>
     <row r="9">
@@ -7067,16 +7067,16 @@
         <v>78359</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71788</v>
+        <v>73011</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>80498</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9734324408765272</v>
+        <v>0.9734324408765275</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8918019958717636</v>
+        <v>0.9069881304860372</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -7088,19 +7088,19 @@
         <v>175190</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>164395</v>
+        <v>164379</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>184518</v>
+        <v>184963</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7920167656034873</v>
+        <v>0.7920167656034872</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7432131561527017</v>
+        <v>0.7431421779240093</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8341869592659246</v>
+        <v>0.8361986563268099</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>304</v>
@@ -7109,19 +7109,19 @@
         <v>253550</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>241224</v>
+        <v>242280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>264446</v>
+        <v>264123</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8404224212630749</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7995661993975344</v>
+        <v>0.803064205537801</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8765380457370755</v>
+        <v>0.8754667920695679</v>
       </c>
     </row>
     <row r="11">
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8710</v>
+        <v>7487</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0265675591234725</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1081980041282364</v>
+        <v>0.09301186951396308</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>60</v>
@@ -7159,19 +7159,19 @@
         <v>46005</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36677</v>
+        <v>36232</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>56800</v>
+        <v>56816</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2079832343965127</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1658130407340756</v>
+        <v>0.16380134367319</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2567868438472982</v>
+        <v>0.2568578220759908</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>62</v>
@@ -7180,19 +7180,19 @@
         <v>48144</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37248</v>
+        <v>37571</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>60470</v>
+        <v>59414</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1595775787369252</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1234619542629243</v>
+        <v>0.124533207930432</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2004338006024657</v>
+        <v>0.1969357944621989</v>
       </c>
     </row>
     <row r="12">
@@ -7284,19 +7284,19 @@
         <v>141297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133491</v>
+        <v>132948</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>146420</v>
+        <v>146246</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9407334432913849</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8887624594440835</v>
+        <v>0.8851433786978254</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.974836864631075</v>
+        <v>0.9736799623361598</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>297</v>
@@ -7305,19 +7305,19 @@
         <v>192908</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>181297</v>
+        <v>180339</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>204838</v>
+        <v>204775</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6901117554156823</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.648574416224208</v>
+        <v>0.6451492720215999</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7327903401233146</v>
+        <v>0.7325654512187166</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>428</v>
@@ -7326,19 +7326,19 @@
         <v>334205</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>319529</v>
+        <v>318625</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>349685</v>
+        <v>348546</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7777089499505441</v>
+        <v>0.777708949950544</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7435572286575597</v>
+        <v>0.7414550352748051</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8137325902878093</v>
+        <v>0.8110816154588952</v>
       </c>
     </row>
     <row r="14">
@@ -7355,19 +7355,19 @@
         <v>8902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3779</v>
+        <v>3953</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16708</v>
+        <v>17251</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05926655670861519</v>
+        <v>0.0592665567086152</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02516313536892504</v>
+        <v>0.02632003766383999</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1112375405559164</v>
+        <v>0.1148566213021745</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>130</v>
@@ -7376,19 +7376,19 @@
         <v>86623</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74693</v>
+        <v>74756</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>98234</v>
+        <v>99192</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3098882445843177</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2672096598766855</v>
+        <v>0.2674345487812834</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3514255837757921</v>
+        <v>0.3548507279784001</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>138</v>
@@ -7397,19 +7397,19 @@
         <v>95525</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>80045</v>
+        <v>81184</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>110201</v>
+        <v>111105</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.222291050049456</v>
+        <v>0.2222910500494559</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1862674097121906</v>
+        <v>0.1889183845411048</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2564427713424403</v>
+        <v>0.2585449647251951</v>
       </c>
     </row>
     <row r="15">
@@ -7501,19 +7501,19 @@
         <v>274811</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>268520</v>
+        <v>268329</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>277603</v>
+        <v>277054</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.987373613884786</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9647719286666537</v>
+        <v>0.9640836127780092</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9974070132693422</v>
+        <v>0.9954331019027087</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>424</v>
@@ -7522,19 +7522,19 @@
         <v>258546</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>244225</v>
+        <v>243792</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>272923</v>
+        <v>271111</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6936304675137801</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6552090215187415</v>
+        <v>0.6540472780802005</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7322003937233568</v>
+        <v>0.727340011527659</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>725</v>
@@ -7543,19 +7543,19 @@
         <v>533357</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>518529</v>
+        <v>515498</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>549487</v>
+        <v>548367</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8192026338227394</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7964273068339103</v>
+        <v>0.7917716915830695</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8439761372712266</v>
+        <v>0.842256688664204</v>
       </c>
     </row>
     <row r="17">
@@ -7572,19 +7572,19 @@
         <v>3514</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>722</v>
+        <v>1271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9805</v>
+        <v>9996</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01262638611521415</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00259298673065769</v>
+        <v>0.004566898097291209</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03522807133334682</v>
+        <v>0.03591638722199392</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>184</v>
@@ -7593,19 +7593,19 @@
         <v>114197</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99820</v>
+        <v>101632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>128518</v>
+        <v>128951</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3063695324862199</v>
+        <v>0.3063695324862198</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2677996062766432</v>
+        <v>0.2726599884723409</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3447909784812584</v>
+        <v>0.3459527219197994</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>188</v>
@@ -7614,19 +7614,19 @@
         <v>117712</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>101582</v>
+        <v>102702</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>132540</v>
+        <v>135571</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1807973661772605</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1560238627287737</v>
+        <v>0.1577433113357956</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2035726931660898</v>
+        <v>0.2082283084169304</v>
       </c>
     </row>
     <row r="18">
@@ -7718,19 +7718,19 @@
         <v>385317</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>382244</v>
+        <v>382330</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>386906</v>
+        <v>386892</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9945861320013039</v>
+        <v>0.9945861320013037</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9866544906100115</v>
+        <v>0.9868759305401417</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9986880434509764</v>
+        <v>0.9986513685919886</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>541</v>
@@ -7739,19 +7739,19 @@
         <v>287689</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>273218</v>
+        <v>273923</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>301201</v>
+        <v>301195</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6890469068295014</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6543868910817204</v>
+        <v>0.6560742563945304</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7214075190102534</v>
+        <v>0.7213931947188382</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1079</v>
@@ -7760,19 +7760,19 @@
         <v>673006</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>658167</v>
+        <v>657396</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>688485</v>
+        <v>688509</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8361029863786523</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.817668081033475</v>
+        <v>0.8167094442466218</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8553336435185255</v>
+        <v>0.8553625206375477</v>
       </c>
     </row>
     <row r="20">
@@ -7789,19 +7789,19 @@
         <v>2097</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5170</v>
+        <v>5084</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005413867998696175</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001311956549023683</v>
+        <v>0.001348631408011515</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01334550938998835</v>
+        <v>0.01312406945985911</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>246</v>
@@ -7810,19 +7810,19 @@
         <v>129829</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>116317</v>
+        <v>116323</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>144300</v>
+        <v>143595</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3109530931704986</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2785924809897468</v>
+        <v>0.2786068052811614</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3456131089182796</v>
+        <v>0.3439257436054693</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>250</v>
@@ -7831,19 +7831,19 @@
         <v>131926</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>116447</v>
+        <v>116423</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146765</v>
+        <v>147536</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1638970136213477</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1446663564814747</v>
+        <v>0.144637479362452</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.182331918966525</v>
+        <v>0.183290555753378</v>
       </c>
     </row>
     <row r="21">
@@ -7935,16 +7935,16 @@
         <v>307203</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>304282</v>
+        <v>303865</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>308382</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9961776215685042</v>
+        <v>0.9961776215685044</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9867056798289813</v>
+        <v>0.9853520034134172</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -7956,19 +7956,19 @@
         <v>246513</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>229503</v>
+        <v>229935</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>261915</v>
+        <v>263289</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5330388711702546</v>
+        <v>0.5330388711702545</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4962572344932193</v>
+        <v>0.4971919328125353</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5663422525234491</v>
+        <v>0.569311923616828</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>941</v>
@@ -7977,19 +7977,19 @@
         <v>553717</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>535005</v>
+        <v>534667</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>573976</v>
+        <v>572016</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7183195037426973</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6940450716646823</v>
+        <v>0.6936069848125517</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7446019389452543</v>
+        <v>0.7420581870866081</v>
       </c>
     </row>
     <row r="23">
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4100</v>
+        <v>4517</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003822378431495532</v>
@@ -8018,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01329432017101959</v>
+        <v>0.01464799658658296</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>390</v>
@@ -8027,19 +8027,19 @@
         <v>215955</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>200553</v>
+        <v>199179</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>232965</v>
+        <v>232533</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4669611288297454</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4336577474765509</v>
+        <v>0.430688076383172</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5037427655067808</v>
+        <v>0.5028080671874647</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>392</v>
@@ -8048,19 +8048,19 @@
         <v>217133</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>196874</v>
+        <v>198834</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>235845</v>
+        <v>236183</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2816804962573027</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2553980610547457</v>
+        <v>0.257941812913392</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3059549283353176</v>
+        <v>0.3063930151874482</v>
       </c>
     </row>
     <row r="24">
@@ -8152,19 +8152,19 @@
         <v>1318771</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1272793</v>
+        <v>1272396</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1356944</v>
+        <v>1359743</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.8475399129688826</v>
+        <v>0.847539912968883</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8179909819706654</v>
+        <v>0.8177355354606979</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8720726019884938</v>
+        <v>0.8738711482612235</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2126</v>
@@ -8173,19 +8173,19 @@
         <v>1327691</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1289087</v>
+        <v>1281015</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1371314</v>
+        <v>1366246</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6112837824461963</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.5935098840975894</v>
+        <v>0.5897934284343609</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.6313683913354148</v>
+        <v>0.6290347142224023</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3689</v>
@@ -8194,19 +8194,19 @@
         <v>2646462</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2582584</v>
+        <v>2587582</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2704108</v>
+        <v>2707090</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.709893520724292</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.69275872572611</v>
+        <v>0.694099230163026</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7253565137661966</v>
+        <v>0.7261562658629979</v>
       </c>
     </row>
     <row r="26">
@@ -8223,19 +8223,19 @@
         <v>237228</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>199055</v>
+        <v>196256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>283206</v>
+        <v>283603</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1524600870311171</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1279273980115063</v>
+        <v>0.1261288517387766</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1820090180293346</v>
+        <v>0.1822644645393024</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1159</v>
@@ -8244,19 +8244,19 @@
         <v>844281</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>800658</v>
+        <v>805726</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>882885</v>
+        <v>890957</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3887162175538038</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3686316086645852</v>
+        <v>0.3709652857775975</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4064901159024106</v>
+        <v>0.4102065715656389</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1271</v>
@@ -8265,19 +8265,19 @@
         <v>1081509</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1023863</v>
+        <v>1020881</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1145387</v>
+        <v>1140389</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.290106479275708</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2746434862338034</v>
+        <v>0.2738437341370021</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3072412742738901</v>
+        <v>0.305900769836974</v>
       </c>
     </row>
     <row r="27">
